--- a/Test protocol/Sprint_3/DK/System Test protocol_Braille DP2_Sprint 3_DK.xlsx
+++ b/Test protocol/Sprint_3/DK/System Test protocol_Braille DP2_Sprint 3_DK.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="131">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -578,6 +578,21 @@
   </si>
   <si>
     <t>Denmark</t>
+  </si>
+  <si>
+    <t>Because these are two separate requirements, I do not consider it an error that alternating line-spacing (4.4:75) is not enabled by default once double (or whatever multiple) line-spacing (4.4:74) is enabled. See test cases linespace_uniform_sample and linespace_alternating_sample. Both work; hence the collective pass.</t>
+  </si>
+  <si>
+    <t>DK (uniform)</t>
+  </si>
+  <si>
+    <t>DK (alternating)</t>
+  </si>
+  <si>
+    <t>https://github.com/stesk/danishbraille/blob/master/tests/formatting/linespace_uniform_sample.pef</t>
+  </si>
+  <si>
+    <t>https://github.com/stesk/danishbraille/blob/master/tests/formatting/linespace_alternating_sample.pef</t>
   </si>
 </sst>
 </file>
@@ -2473,11 +2488,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+      <pane ySplit="6" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3354,74 +3369,89 @@
     <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102" s="34"/>
+        <v>127</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="B104" t="s">
         <v>78</v>
       </c>
-      <c r="C103" s="34"/>
-    </row>
-    <row r="104" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="9"/>
+      <c r="C104" s="34"/>
     </row>
     <row r="105" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105" s="9"/>
+    </row>
+    <row r="106" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="9"/>
-    </row>
-    <row r="106" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="50"/>
-      <c r="C106" s="50"/>
-    </row>
-    <row r="107" spans="1:3" s="51" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B107" s="52"/>
-      <c r="C107" s="53"/>
-    </row>
-    <row r="108" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="54"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="56"/>
+      <c r="B106" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="9"/>
+    </row>
+    <row r="107" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="50"/>
+      <c r="C107" s="50"/>
+    </row>
+    <row r="108" spans="1:3" s="51" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B108" s="52"/>
+      <c r="C108" s="53"/>
     </row>
     <row r="109" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="54"/>
       <c r="B109" s="55"/>
-      <c r="C109" s="58"/>
-    </row>
-    <row r="110" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="11"/>
-      <c r="C110" s="9"/>
+      <c r="C109" s="56"/>
+    </row>
+    <row r="110" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="54"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="58"/>
     </row>
     <row r="111" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="11"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="35"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
-      <c r="B113" s="28"/>
-      <c r="C113" s="34"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="35"/>
     </row>
     <row r="114" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="11"/>
-      <c r="C114" s="9"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="34"/>
     </row>
     <row r="115" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="11"/>
       <c r="C115" s="9"/>
+    </row>
+    <row r="116" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="11"/>
+      <c r="C116" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3446,8 +3476,10 @@
     <hyperlink ref="C53" r:id="rId19"/>
     <hyperlink ref="C54" r:id="rId20"/>
     <hyperlink ref="C91" r:id="rId21"/>
+    <hyperlink ref="C102" r:id="rId22"/>
+    <hyperlink ref="C103" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>